--- a/Plik_bankowy.xlsx
+++ b/Plik_bankowy.xlsx
@@ -32,9 +32,6 @@
     <t>Kwota</t>
   </si>
   <si>
-    <t>transakcja</t>
-  </si>
-  <si>
     <t>Opis</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>rozrywka</t>
+  </si>
+  <si>
+    <t>Transakcja</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,10 +398,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -412,10 +412,10 @@
         <v>-109.3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>-254.99</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -440,10 +440,10 @@
         <v>-4.2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,10 +454,10 @@
         <v>-66.5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>-53.45</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,10 +482,10 @@
         <v>-34.299999999999997</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>-22.58</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,10 +510,10 @@
         <v>-76</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,10 +524,10 @@
         <v>-41.8</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,10 +538,10 @@
         <v>-69.72</v>
       </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,10 +552,10 @@
         <v>-5.55</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,10 +566,10 @@
         <v>-22.6</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>-49.33</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,10 +594,10 @@
         <v>-115.31</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,10 +608,10 @@
         <v>-1426.58</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,10 +622,10 @@
         <v>-299.99</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>-88.47</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,10 +650,10 @@
         <v>-637.41</v>
       </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
         <v>-554.65</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,10 +678,10 @@
         <v>-74.23</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
